--- a/0_1_Output_Data/5_ifoCAST_error_series_matched_since_2021/ifoCAst_errors_filtered_first_since_2021.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_matched_since_2021/ifoCAst_errors_filtered_first_since_2021.xlsx
@@ -699,6 +699,9 @@
       <c r="C19">
         <v>0.3054124294241067</v>
       </c>
+      <c r="D19">
+        <v>0.597740902</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
@@ -706,6 +709,9 @@
       </c>
       <c r="B20">
         <v>0.05603945542410671</v>
+      </c>
+      <c r="C20">
+        <v>0.042359665</v>
       </c>
     </row>
   </sheetData>
